--- a/biology/Médecine/Test_navette_de_Luc_Léger/Test_navette_de_Luc_Léger.xlsx
+++ b/biology/Médecine/Test_navette_de_Luc_Léger/Test_navette_de_Luc_Léger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Test_navette_de_Luc_L%C3%A9ger</t>
+          <t>Test_navette_de_Luc_Léger</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le test de Luc Léger est un test physique qui permet de déterminer la vitesse maximale aérobie (VMA) et d'estimer d'après celle-ci la consommation maximale d'oxygène (VO2Max).
 Il a été créé par le Dr
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Test_navette_de_Luc_L%C3%A9ger</t>
+          <t>Test_navette_de_Luc_Léger</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,12 +527,14 @@
           <t>Déroulement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Des repères sont installés tous les 20 m sur une piste d'athlétisme.
 Le sujet commence par courir à moins de 8 km/h pendant deux minutes. Un signal retentit à chaque fois que le sujet devrait passer devant un repère s'il courait à la bonne vitesse.
 Généralement, la distance séparant deux repères est de 20 m, mais cette dernière peut varier. Toutes les minutes, la vitesse à suivre augmente de 0,5 km/h. Le sujet doit donc accélérer légèrement toutes les minutes après son échauffement d'une minute. Lorsque le signal est émis avant qu'il n'ait atteint le repère, on considère qu'il a atteint sa VMA.
-La durée du test doit être comprise entre 15 et 20 minutes[1].
+La durée du test doit être comprise entre 15 et 20 minutes.
 </t>
         </is>
       </c>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Test_navette_de_Luc_L%C3%A9ger</t>
+          <t>Test_navette_de_Luc_Léger</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Différence avec le test Léger-Boucher</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce test ressemble au test Léger-Boucher avec lequel il peut être confondu. Mais il en diffère sur un point majeur : sa course est continue et non hachée par des allers et retours.
 </t>
